--- a/Contabilização de desenvolvimento.xlsx
+++ b/Contabilização de desenvolvimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos\dsmeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E5E7BE-4BD1-4935-B8AA-80E824C1EC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD2663B-48F6-4C54-9822-8B02A5D7F349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{412334A9-40B1-41AB-A0F3-1A8D162A2DAB}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -58,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -122,10 +111,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F4287D-0A70-4F3D-9A9E-533C3C429AEA}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -494,11 +483,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C3" s="4">
-        <v>0.75</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D3" s="4">
         <f>C3-B3</f>
-        <v>4.166666666666663E-2</v>
+        <v>8.6805555555555469E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.73611111111111116</v>
       </c>
     </row>
   </sheetData>

--- a/Contabilização de desenvolvimento.xlsx
+++ b/Contabilização de desenvolvimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos\dsmeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD2663B-48F6-4C54-9822-8B02A5D7F349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E645E2A-6FF6-473C-AA9B-87D5A230B736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{412334A9-40B1-41AB-A0F3-1A8D162A2DAB}"/>
   </bookViews>
@@ -105,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -118,6 +118,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F4287D-0A70-4F3D-9A9E-533C3C429AEA}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,17 +450,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -496,6 +497,28 @@
       </c>
       <c r="B4" s="4">
         <v>0.73611111111111116</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D4" s="4">
+        <f>C4-B4</f>
+        <v>5.5555555555555469E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5-B5</f>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
   </sheetData>
